--- a/clusters/tests/test_models/excel_test_file/wrong_excel.xlsx
+++ b/clusters/tests/test_models/excel_test_file/wrong_excel.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5A8BF46-F109-436B-AF39-FE692E0848B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xpeppers/Desktop/career-landscape/clusters/tests/test_models/excel_test_file/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C653F9C1-6CE9-C040-B5B4-A3A9BD775E1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="20380" windowHeight="13120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -26,7 +34,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,48 +422,148 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="A1:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F4D7552-1C3A-A34E-9864-B4C47FB4A7DE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F488FE6-F945-DC48-BE9F-B8B17DD83893}">
+  <dimension ref="A4:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA414DF3-2ECA-AA49-8C44-477801D04F0F}">
+  <dimension ref="A4:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
